--- a/관리프로그램_시스템프로세스.xlsx
+++ b/관리프로그램_시스템프로세스.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhkd7\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhkd7\Desktop\프로젝트를 위해\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E6128B-307D-4650-AE35-800BEBB2E772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A71CC-14F8-40A1-950B-00CBEC541979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="화면 구성 " sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="화면 구성 " sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="176">
   <si>
     <t xml:space="preserve">로그인화면 </t>
     <phoneticPr fontId="1"/>
@@ -1023,10 +1024,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>button(중복검사)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>아이디 또는 패스워드가 틀렸습니다.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1035,10 +1032,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>내일 물어보고</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>휴가 신청 종류</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1051,11 +1044,220 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>반차</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>내일 물어볼 거</t>
+    <t>날짜 창</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>지각 : 출근보다 늦을 경우</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>무단결근 : 해당 날짜보다 늦을 경우</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출근 : 정상에 출근</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>퇴근 정상시간에 퇴근 또는 추가근무 전에 퇴근</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사원 선택이 아닌 시간에 따라(자동으로)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>자기가 작성</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>근태구분</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>실동시간 - 근무시간 = 시간외</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>내일물어보기</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>자동(1시간)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>용무휴가</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>시간 24H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>퇴근(추가근무) : 퇴근을 누르면 자동 적용</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5시간</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>새벽 3시</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4시간</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09:00 - 03:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>블라블라</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>닫기</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>닫기(버튼)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>디자인 UI 컬러 : 주황색</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>김경민</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>신종현</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오정식</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>김동준</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>권한이 있을 시 - 관리자 페이지
+없을 시 - 권한이 없습니다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>근무부서</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3(15)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>관리자 화면</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>근무부서 선택▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>인사</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사업</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>해당 부서를 선택하면 사원 목록이 생김</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사원을 선택하면 해당 사원의 데이터를 한 눈에 볼 수 있음</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(새창에 띄움)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>중복검사버튼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사원이름</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사원번호</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사원이 많이질 경우 : 게시판 OR 검색</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>검색창</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사원 번호</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가신청종류</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가 이유</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가를 신청한 모든 사원이 차례대로 뜸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>승인</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가 관리 및 승인</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>작성 후 확인</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>청원휴가</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1063,115 +1265,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>청원휴가</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>날짜 창</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>지각 : 출근보다 늦을 경우</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>무단결근 : 해당 날짜보다 늦을 경우</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>출근 : 정상에 출근</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>퇴근 정상시간에 퇴근 또는 추가근무 전에 퇴근</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사원 선택이 아닌 시간에 따라(자동으로)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>휴가신청은 선택</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>자기가 작성</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>근태구분</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>실동시간 - 근무시간 = 시간외</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>내일물어보기</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>자동(1시간)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>법정휴일</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>용무휴가</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>시간 24H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>새벽 3시 근무</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>퇴근(추가근무) : 퇴근을 누르면 자동 적용</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6시에 끝남</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5시간</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>새벽 3시</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4시간</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09:00 - 03:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>블라블라</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>닫기</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>닫기(버튼)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>디자인 UI 컬러 : 주황색</t>
+    <t>선택▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>종별(선택목록)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>누를 시 관리 페이지가 먼저 뜸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가 신청 현황</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가종류</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>신청현황</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가 신청 내역</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>휴가이유</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>현재신청현황</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>날짜       근무부서</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>월별▼</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1179,7 +1325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,8 +1484,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,6 +1554,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,7 +1777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1852,6 +2051,102 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1873,79 +2168,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,7 +2302,856 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'화면 구성 '!$B$79:$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>사원번호</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>검색창</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'화면 구성 '!$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7D5-4D3A-84A1-E42ECBC91E53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="563325376"/>
+        <c:axId val="563326032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="563325376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563326032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563326032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563325376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BE6E925A-F7D2-4067-BD0A-B218254C4FE9}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9295694" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E881C9-F229-436C-AEDD-9975EA2E27AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3015,24 +4201,103 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>관리자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>버튼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>관리자는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>에 미리 추가</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3185,15 +4450,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>) : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="2400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>다시 로그인 창</a:t>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
             <a:solidFill>
@@ -3635,10 +4892,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>184727</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3653,8 +4910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="8715375"/>
-          <a:ext cx="14363700" cy="5753100"/>
+          <a:off x="2454564" y="10979727"/>
+          <a:ext cx="15602527" cy="6927273"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3964,7 +5221,648 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>240145</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72D5C0B-9C18-49DD-91FF-ABFEAA1C8D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="12675466"/>
+          <a:ext cx="7391400" cy="5058352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464881</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>203945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640381</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>193851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6B8750-7A80-4096-900D-5534F04AA53A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5565033">
+          <a:off x="592314" y="14404421"/>
+          <a:ext cx="3107179" cy="175500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 49622"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106465</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1281545</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>161635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9208DC67-9EA6-4E34-BA99-FF7BC8135B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1699738" y="19754272"/>
+          <a:ext cx="4176898" cy="207818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 49622"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>583431</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>40023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>616780</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>166506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB9219D-164C-4D4E-8061-9626E20962E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19842912">
+          <a:off x="2961795" y="16988750"/>
+          <a:ext cx="691440" cy="126483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 49622"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>572032</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>144259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>306225</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>215818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D73FC10-776D-4D2C-B60B-B561994DDA8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6647185">
+          <a:off x="1119167" y="19235942"/>
+          <a:ext cx="1168378" cy="392284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 49622"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>124535</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>148297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206460</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>99410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7478D3-FBA7-42F9-B3C5-47EA72CA899C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3236955" flipV="1">
+          <a:off x="2019895" y="21528573"/>
+          <a:ext cx="3680295" cy="81925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 49622"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>844493</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>96828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90688</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>134082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CDB4EA-14D8-4616-80B8-25F6D7F38AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5061784" flipV="1">
+          <a:off x="14690282" y="11131494"/>
+          <a:ext cx="1134072" cy="146740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>274279</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>433584</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>39449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F11F126-C287-4D5D-81C3-F6DB56B557F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3727927">
+          <a:off x="14614624" y="12153852"/>
+          <a:ext cx="4590979" cy="159305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>654649</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>30338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>853249</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A63C3DF-E78A-4ADC-9B3C-448F27A234A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3033013" y="20927611"/>
+          <a:ext cx="1514781" cy="122491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566065</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>80247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>920222</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>41909</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="67" name="잉크 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AE31CB-EECB-44F2-9BA9-E45EB2384E6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3602520" y="17687065"/>
+            <a:ext cx="4637520" cy="3471480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="잉크 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AE31CB-EECB-44F2-9BA9-E45EB2384E6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3593505" y="17677734"/>
+              <a:ext cx="4655189" cy="3489769"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-09-14T11:44:19.592"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">95 1,'749'0,"-723"-1,-1 2,1 0,-1 2,1 0,-1 2,0 1,15 6,-34-9,0 0,0 0,-1 0,1 1,-1 0,0 0,0 0,-1 1,1 0,-1 0,0 0,-1 0,1 0,-1 1,0 0,0-1,-1 1,0 0,0 0,0 1,0 4,3 17,-2 1,-1-1,-1 1,-3 12,2-9,-7 804,8-823,-2 0,0 0,0 0,-1 0,-1 0,2-9,0 0,-1 0,1 0,-1 0,0 0,-1-1,1 1,0-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,-1 1,-9 4,-1-1,0-1,0 0,-1-2,1 1,-1-2,-1 0,-35 8,-19 6,-1-4,0-2,-1-4,-51-2,-359-7,456 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1745.88">1088 620,'30'-1,"0"-2,16-4,18-1,169-5,81 12,-184 1,225-1,485 5,-564 6,207 35,-323-20,0 6,-3 7,110 43,196 101,-8 21,-251-111,1083 534,-449-152,-435-223,-5 22,-277-180,96 94,86 121,-298-302,203 228,-149-161,-3 3,12 27,-25-32,34 55,43 98,14 40,-19-41,-64-114,76 147,-74-164,89 168,-118-209,-3 1,-2 1,-2 0,1 18,7 64,-10-51,3 0,10 18,-1-4,-5 0,4 57,11 53,38 179,-37-192,44 181,45 245,-112-536,-5-24,-4-19,2 0,2 0,14 38,-18-66,6 15,-1 1,-1 0,-2 1,-1-1,0 7,-5-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4814.05">10277 8599,'625'589,"-594"-560,-19-17,0 0,1-1,0-1,15 9,-22-16,-1 0,1-1,0 1,0-1,-1-1,1 1,0-1,1 0,-1 0,0-1,0 0,0 0,0 0,1-1,-1 0,0 0,13-3,0-1,-1-1,1-1,11-6,72-39,-64 31,89-51,-3-4,4-12,221-182,-144 92,44-35,-190 167,2 4,1 2,30-12,-45 28</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4290,8 +6188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AM124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView tabSelected="1" topLeftCell="M19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4325,7 +6223,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="J4" s="121" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K4" s="122"/>
     </row>
@@ -4341,7 +6239,7 @@
       <c r="J5" s="122"/>
       <c r="K5" s="122"/>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="26">
@@ -4358,7 +6256,7 @@
       <c r="J6" s="122"/>
       <c r="K6" s="122"/>
       <c r="M6" s="119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N6" s="119"/>
       <c r="O6" s="119"/>
@@ -4456,11 +6354,11 @@
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="91" t="s">
+      <c r="H15" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="14"/>
@@ -4468,9 +6366,9 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:30" ht="17" customHeight="1">
       <c r="B17" s="14"/>
@@ -4481,10 +6379,10 @@
       <c r="H17" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="I17" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="98"/>
+      <c r="J17" s="118"/>
       <c r="M17" t="s">
         <v>99</v>
       </c>
@@ -4501,16 +6399,16 @@
       <c r="H18" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="117">
         <v>20201201</v>
       </c>
-      <c r="J18" s="98"/>
-      <c r="M18" s="118" t="s">
+      <c r="J18" s="118"/>
+      <c r="M18" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
     </row>
     <row r="19" spans="1:30">
       <c r="B19" s="14"/>
@@ -4521,17 +6419,17 @@
       <c r="H19" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="132" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
     </row>
     <row r="20" spans="1:30">
       <c r="B20" s="19"/>
@@ -4540,31 +6438,33 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="136"/>
       <c r="H20" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="99" t="s">
+      <c r="I20" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="98"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
     </row>
     <row r="21" spans="1:30">
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="99" t="s">
+      <c r="I21" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="98"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
     </row>
     <row r="22" spans="1:30">
       <c r="H22" s="19"/>
@@ -4574,23 +6474,23 @@
       <c r="J22" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
     </row>
     <row r="23" spans="1:30">
       <c r="B23" s="1"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
       <c r="A25" s="7"/>
@@ -4604,14 +6504,6 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30">
@@ -4641,7 +6533,7 @@
       <c r="O31" s="28"/>
       <c r="P31" s="29"/>
       <c r="AA31" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
@@ -4662,7 +6554,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
@@ -4673,7 +6565,7 @@
         <v>17</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:39">
@@ -4687,7 +6579,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
       <c r="K33" s="35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
@@ -4695,7 +6587,7 @@
       <c r="O33" s="35"/>
       <c r="P33" s="36"/>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:39" ht="30.75" customHeight="1">
@@ -4744,28 +6636,28 @@
       </c>
       <c r="X34" s="29"/>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:39">
       <c r="F35" s="51">
         <v>43983</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>121</v>
+      <c r="G35" s="137" t="s">
+        <v>114</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -4777,7 +6669,7 @@
       <c r="W35" s="32"/>
       <c r="X35" s="33"/>
       <c r="AA35" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:39">
@@ -4806,7 +6698,7 @@
       <c r="W36" s="47"/>
       <c r="X36" s="48"/>
       <c r="AA36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:39">
@@ -4833,7 +6725,7 @@
       <c r="W37" s="25"/>
       <c r="X37" s="26"/>
       <c r="AJ37" s="120" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AK37" s="120"/>
       <c r="AL37" s="120"/>
@@ -4857,7 +6749,7 @@
         <v>6</v>
       </c>
       <c r="S38" s="24" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
@@ -4887,7 +6779,7 @@
         <v>13</v>
       </c>
       <c r="S39" s="24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
@@ -4990,13 +6882,13 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="R42" s="22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="U42" s="23"/>
       <c r="V42" s="23"/>
@@ -5088,8 +6980,10 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="15"/>
+      <c r="R45" s="148" t="s">
+        <v>171</v>
+      </c>
+      <c r="S45" s="149"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
@@ -5098,9 +6992,9 @@
       <c r="AA45" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AB45" s="106"/>
-      <c r="AC45" s="107"/>
-      <c r="AD45" s="108"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="105"/>
+      <c r="AD45" s="106"/>
     </row>
     <row r="46" spans="2:39">
       <c r="F46" s="52">
@@ -5116,17 +7010,19 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="20"/>
+      <c r="R46" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="S46" s="147"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
       <c r="X46" s="21"/>
       <c r="AA46" s="64"/>
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="111"/>
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="109"/>
     </row>
     <row r="47" spans="2:39">
       <c r="F47" s="52">
@@ -5143,9 +7039,9 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="AA47" s="64"/>
-      <c r="AB47" s="109"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="111"/>
+      <c r="AB47" s="107"/>
+      <c r="AC47" s="108"/>
+      <c r="AD47" s="109"/>
     </row>
     <row r="48" spans="2:39">
       <c r="F48" s="52">
@@ -5161,13 +7057,10 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="R48" t="s">
-        <v>119</v>
-      </c>
       <c r="AA48" s="65"/>
-      <c r="AB48" s="112"/>
-      <c r="AC48" s="113"/>
-      <c r="AD48" s="114"/>
+      <c r="AB48" s="110"/>
+      <c r="AC48" s="111"/>
+      <c r="AD48" s="112"/>
     </row>
     <row r="49" spans="6:30">
       <c r="F49" s="52">
@@ -5186,9 +7079,9 @@
       <c r="AA49" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AB49" s="106"/>
-      <c r="AC49" s="107"/>
-      <c r="AD49" s="108"/>
+      <c r="AB49" s="104"/>
+      <c r="AC49" s="105"/>
+      <c r="AD49" s="106"/>
     </row>
     <row r="50" spans="6:30">
       <c r="F50" s="52">
@@ -5205,9 +7098,9 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="AA50" s="64"/>
-      <c r="AB50" s="109"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="111"/>
+      <c r="AB50" s="107"/>
+      <c r="AC50" s="108"/>
+      <c r="AD50" s="109"/>
     </row>
     <row r="51" spans="6:30">
       <c r="F51" s="52">
@@ -5224,9 +7117,9 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="AA51" s="65"/>
-      <c r="AB51" s="112"/>
-      <c r="AC51" s="113"/>
-      <c r="AD51" s="114"/>
+      <c r="AB51" s="110"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="112"/>
     </row>
     <row r="52" spans="6:30">
       <c r="F52" s="52">
@@ -5242,9 +7135,6 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="U52" t="s">
-        <v>110</v>
-      </c>
       <c r="AA52" s="17"/>
       <c r="AB52" s="15"/>
       <c r="AC52" s="15"/>
@@ -5264,9 +7154,12 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-      <c r="U53" t="s">
-        <v>111</v>
-      </c>
+      <c r="R53" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="S53" s="152"/>
+      <c r="T53" s="153"/>
+      <c r="U53" s="150"/>
       <c r="AA53" s="17"/>
       <c r="AB53" s="15"/>
       <c r="AC53" s="56" t="s">
@@ -5290,9 +7183,10 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
-      <c r="U54" t="s">
-        <v>112</v>
-      </c>
+      <c r="R54" s="154"/>
+      <c r="S54" s="155"/>
+      <c r="T54" s="156"/>
+      <c r="U54" s="15"/>
       <c r="AA54" s="19"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
@@ -5312,11 +7206,14 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
-      <c r="U55" t="s">
-        <v>125</v>
-      </c>
+      <c r="R55" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="S55" s="91"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="15"/>
       <c r="X55" s="68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y55" s="7"/>
     </row>
@@ -5334,8 +7231,14 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
+      <c r="R56" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="S56" s="93"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="15"/>
       <c r="X56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="6:30">
@@ -5352,8 +7255,14 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
+      <c r="R57" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="S57" s="93"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="15"/>
       <c r="X57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="6:30">
@@ -5370,9 +7279,15 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
-      <c r="X58" t="s">
-        <v>109</v>
-      </c>
+      <c r="R58" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="S58" s="96"/>
+      <c r="T58" s="97"/>
+      <c r="U58" s="15"/>
+      <c r="Y58" s="163"/>
+      <c r="Z58" s="163"/>
+      <c r="AA58" s="163"/>
     </row>
     <row r="59" spans="6:30">
       <c r="F59" s="52">
@@ -5388,6 +7303,10 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
+      <c r="U59" s="15"/>
+      <c r="Y59" s="163"/>
+      <c r="Z59" s="163"/>
+      <c r="AA59" s="163"/>
     </row>
     <row r="60" spans="6:30">
       <c r="F60" s="52">
@@ -5403,6 +7322,9 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
+      <c r="U60" s="15"/>
+      <c r="X60" s="165"/>
+      <c r="Y60" s="165"/>
     </row>
     <row r="61" spans="6:30">
       <c r="F61" s="52">
@@ -5418,6 +7340,10 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
     </row>
     <row r="62" spans="6:30">
       <c r="F62" s="52">
@@ -5433,6 +7359,10 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
     </row>
     <row r="63" spans="6:30">
       <c r="F63" s="52">
@@ -5448,6 +7378,10 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
     </row>
     <row r="64" spans="6:30">
       <c r="F64" s="53">
@@ -5463,10 +7397,16 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
-    </row>
-    <row r="65" spans="1:22" ht="21" customHeight="1">
+      <c r="W64" s="158" t="s">
+        <v>171</v>
+      </c>
+      <c r="X64" s="159"/>
+      <c r="Y64" s="159"/>
+      <c r="Z64" s="160"/>
+    </row>
+    <row r="65" spans="1:31" ht="21" customHeight="1">
       <c r="F65" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -5478,8 +7418,32 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="4"/>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W65" s="161"/>
+      <c r="X65" s="157"/>
+      <c r="Y65" s="157"/>
+      <c r="Z65" s="162"/>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="W66" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="X66" s="141" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y66" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z66" s="141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="W67" s="11"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="13"/>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5491,921 +7455,1287 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="B69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
-      <c r="A70">
+      <c r="W68" s="14"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="16"/>
+    </row>
+    <row r="69" spans="1:31">
+      <c r="W69" s="14"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="16"/>
+    </row>
+    <row r="70" spans="1:31">
+      <c r="W70" s="14"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="16"/>
+    </row>
+    <row r="71" spans="1:31">
+      <c r="W71" s="19"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="21"/>
+    </row>
+    <row r="72" spans="1:31">
+      <c r="A72">
         <v>3</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="88" t="s">
+    <row r="73" spans="1:31">
+      <c r="E73" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+    </row>
+    <row r="74" spans="1:31">
+      <c r="B74" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="135"/>
+      <c r="D74" s="135"/>
+      <c r="F74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
+      <c r="F76" t="s">
+        <v>141</v>
+      </c>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:31">
+      <c r="B77" s="132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="133" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="133"/>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
+      <c r="B79" s="132" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="133"/>
+      <c r="E79" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="N79" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="O79" s="130"/>
+      <c r="P79" s="130"/>
+      <c r="Q79" s="130"/>
+      <c r="R79" s="130"/>
+    </row>
+    <row r="80" spans="1:31">
+      <c r="N80" s="130"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="130"/>
+      <c r="Q80" s="130"/>
+      <c r="R80" s="130"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="13"/>
+    </row>
+    <row r="81" spans="1:31">
+      <c r="B81" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="133"/>
+      <c r="E81" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="N81" s="130"/>
+      <c r="O81" s="130"/>
+      <c r="P81" s="130"/>
+      <c r="Q81" s="130"/>
+      <c r="R81" s="130"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
+      <c r="N82" s="130"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="130"/>
+      <c r="Q82" s="130"/>
+      <c r="R82" s="130"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="21"/>
+    </row>
+    <row r="83" spans="1:31">
+      <c r="B83" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="N83" s="130"/>
+      <c r="O83" s="130"/>
+      <c r="P83" s="130"/>
+      <c r="Q83" s="130"/>
+      <c r="R83" s="130"/>
+      <c r="W83" s="24"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="25"/>
+      <c r="Z83" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA83" s="25"/>
+      <c r="AB83" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC83" s="25"/>
+      <c r="AD83" s="25"/>
+      <c r="AE83" s="26"/>
+    </row>
+    <row r="84" spans="1:31">
+      <c r="B84" s="139"/>
+      <c r="C84" s="139"/>
+      <c r="D84" s="139"/>
+      <c r="N84" s="130"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="130"/>
+      <c r="Q84" s="130"/>
+      <c r="R84" s="130"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="16"/>
+    </row>
+    <row r="85" spans="1:31">
+      <c r="N85" s="130"/>
+      <c r="O85" s="130"/>
+      <c r="P85" s="130"/>
+      <c r="Q85" s="130"/>
+      <c r="R85" s="130"/>
+      <c r="W85" s="24"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="25"/>
+      <c r="AB85" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC85" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD85" s="25"/>
+      <c r="AE85" s="26"/>
+    </row>
+    <row r="86" spans="1:31">
+      <c r="D86" s="130" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="130"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y86" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="13"/>
+    </row>
+    <row r="87" spans="1:31">
+      <c r="W87" s="19"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="20"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="21"/>
+    </row>
+    <row r="88" spans="1:31">
+      <c r="W88" s="76"/>
+      <c r="X88" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y88" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z88" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA88" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB88" s="114"/>
+      <c r="AC88" s="114"/>
+      <c r="AD88" s="114"/>
+      <c r="AE88" s="115"/>
+    </row>
+    <row r="89" spans="1:31">
+      <c r="W89" s="76">
+        <v>1</v>
+      </c>
+      <c r="X89" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y89" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z89" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA89" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB89" s="99"/>
+      <c r="AC89" s="99"/>
+      <c r="AD89" s="99"/>
+      <c r="AE89" s="100"/>
+    </row>
+    <row r="90" spans="1:31">
+      <c r="A90" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" s="144"/>
+      <c r="C90" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" s="144"/>
+      <c r="W90" s="76">
+        <v>2</v>
+      </c>
+      <c r="X90" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y90" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z90" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA90" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB90" s="99"/>
+      <c r="AC90" s="99"/>
+      <c r="AD90" s="99"/>
+      <c r="AE90" s="100"/>
+    </row>
+    <row r="91" spans="1:31">
+      <c r="A91" s="27"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="P91" t="s">
+        <v>145</v>
+      </c>
+      <c r="R91" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="W91" s="76">
+        <v>3</v>
+      </c>
+      <c r="X91" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y91" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z91" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB91" s="99"/>
+      <c r="AC91" s="99"/>
+      <c r="AD91" s="99"/>
+      <c r="AE91" s="100"/>
+    </row>
+    <row r="92" spans="1:31">
+      <c r="A92" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="143" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="143"/>
+      <c r="D92" s="33"/>
+      <c r="P92" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="69" t="s">
+      <c r="Q92" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="30"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="34"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="21"/>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="A76" s="88" t="s">
+      <c r="R92" s="13"/>
+      <c r="W92" s="76">
+        <v>4</v>
+      </c>
+      <c r="X92" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y92" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z92" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA92" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB92" s="99"/>
+      <c r="AC92" s="99"/>
+      <c r="AD92" s="99"/>
+      <c r="AE92" s="100"/>
+    </row>
+    <row r="93" spans="1:31">
+      <c r="A93" s="34"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G93" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="J93" s="138"/>
+      <c r="K93" s="138"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="72"/>
+      <c r="W93" s="76">
+        <v>5</v>
+      </c>
+      <c r="X93" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y93" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z93" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA93" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB93" s="99"/>
+      <c r="AC93" s="99"/>
+      <c r="AD93" s="99"/>
+      <c r="AE93" s="100"/>
+    </row>
+    <row r="94" spans="1:31">
+      <c r="A94" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="G94" t="s">
+        <v>160</v>
+      </c>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="70"/>
+      <c r="R94" s="21"/>
+      <c r="W94" s="76">
+        <v>6</v>
+      </c>
+      <c r="X94" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y94" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z94" s="83">
+        <v>17</v>
+      </c>
+      <c r="AA94" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB94" s="102"/>
+      <c r="AC94" s="102"/>
+      <c r="AD94" s="102"/>
+      <c r="AE94" s="103"/>
+    </row>
+    <row r="95" spans="1:31">
+      <c r="A95" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" t="s">
+        <v>161</v>
+      </c>
+      <c r="I95" s="132" t="s">
+        <v>148</v>
+      </c>
+      <c r="J95" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="W95" s="76">
+        <v>7</v>
+      </c>
+      <c r="X95" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y95" s="76"/>
+      <c r="Z95" s="83"/>
+      <c r="AA95" s="101"/>
+      <c r="AB95" s="102"/>
+      <c r="AC95" s="102"/>
+      <c r="AD95" s="102"/>
+      <c r="AE95" s="103"/>
+    </row>
+    <row r="96" spans="1:31">
+      <c r="A96" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="104"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="106"/>
+      <c r="I96">
+        <v>100000</v>
+      </c>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+      <c r="P96" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="69" t="s">
+      <c r="Q96" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="30"/>
-      <c r="B77" s="18" t="s">
+      <c r="R96" s="13"/>
+      <c r="W96" s="76">
+        <v>8</v>
+      </c>
+      <c r="X96" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y96" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z96" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA96" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB96" s="99"/>
+      <c r="AC96" s="99"/>
+      <c r="AD96" s="99"/>
+      <c r="AE96" s="100"/>
+    </row>
+    <row r="97" spans="1:31">
+      <c r="A97" s="64"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="108"/>
+      <c r="D97" s="109"/>
+      <c r="I97">
+        <v>200000</v>
+      </c>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="16"/>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="30"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="16"/>
-    </row>
-    <row r="79" spans="1:22">
-      <c r="A79" s="30"/>
-      <c r="B79" s="18" t="s">
+      <c r="R97" s="16"/>
+      <c r="W97" s="76">
+        <v>9</v>
+      </c>
+      <c r="X97" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y97" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z97" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA97" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB97" s="99"/>
+      <c r="AC97" s="99"/>
+      <c r="AD97" s="99"/>
+      <c r="AE97" s="100"/>
+    </row>
+    <row r="98" spans="1:31">
+      <c r="A98" s="64"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="109"/>
+      <c r="I98">
+        <v>300000</v>
+      </c>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="16"/>
+      <c r="W98" s="76">
+        <v>10</v>
+      </c>
+      <c r="X98" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y98" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z98" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA98" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB98" s="99"/>
+      <c r="AC98" s="99"/>
+      <c r="AD98" s="99"/>
+      <c r="AE98" s="100"/>
+    </row>
+    <row r="99" spans="1:31">
+      <c r="A99" s="65"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="112"/>
+      <c r="I99">
+        <v>400000</v>
+      </c>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="16"/>
-    </row>
-    <row r="80" spans="1:22">
-      <c r="A80" s="30"/>
-      <c r="B80" s="18" t="s">
+      <c r="R99" s="16"/>
+      <c r="W99" s="76">
+        <v>11</v>
+      </c>
+      <c r="X99" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y99" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z99" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA99" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB99" s="99"/>
+      <c r="AC99" s="99"/>
+      <c r="AD99" s="99"/>
+      <c r="AE99" s="100"/>
+    </row>
+    <row r="100" spans="1:31">
+      <c r="A100" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="104"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="106"/>
+      <c r="K100" s="167" t="s">
+        <v>144</v>
+      </c>
+      <c r="L100" s="167"/>
+      <c r="M100" s="167"/>
+      <c r="N100" s="167"/>
+      <c r="O100" s="168"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="13"/>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="30"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="16"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="61"/>
-      <c r="B82" s="18" t="s">
+      <c r="R100" s="16"/>
+      <c r="W100" s="76">
+        <v>12</v>
+      </c>
+      <c r="X100" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y100" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z100" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB100" s="99"/>
+      <c r="AC100" s="99"/>
+      <c r="AD100" s="99"/>
+      <c r="AE100" s="100"/>
+    </row>
+    <row r="101" spans="1:31">
+      <c r="A101" s="64"/>
+      <c r="B101" s="107"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="109"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="16"/>
+      <c r="W101" s="76">
+        <v>13</v>
+      </c>
+      <c r="X101" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y101" s="76"/>
+      <c r="Z101" s="83"/>
+      <c r="AA101" s="101"/>
+      <c r="AB101" s="102"/>
+      <c r="AC101" s="102"/>
+      <c r="AD101" s="102"/>
+      <c r="AE101" s="103"/>
+    </row>
+    <row r="102" spans="1:31">
+      <c r="A102" s="65"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="112"/>
+      <c r="P102" s="61"/>
+      <c r="Q102" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="21"/>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="30"/>
-      <c r="B83" s="18" t="s">
+      <c r="R102" s="16"/>
+      <c r="W102" s="76">
+        <v>14</v>
+      </c>
+      <c r="X102" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y102" s="76"/>
+      <c r="Z102" s="83"/>
+      <c r="AA102" s="101"/>
+      <c r="AB102" s="102"/>
+      <c r="AC102" s="102"/>
+      <c r="AD102" s="102"/>
+      <c r="AE102" s="103"/>
+    </row>
+    <row r="103" spans="1:31">
+      <c r="A103" s="17"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="R83" s="25"/>
-      <c r="S83" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="T83" s="25"/>
-      <c r="U83" s="25"/>
-      <c r="V83" s="26"/>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="30"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="16"/>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="30"/>
-      <c r="B85" s="18" t="s">
+      <c r="R103" s="16"/>
+      <c r="W103" s="76">
+        <v>15</v>
+      </c>
+      <c r="X103" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y103" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z103" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA103" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB103" s="99"/>
+      <c r="AC103" s="99"/>
+      <c r="AD103" s="99"/>
+      <c r="AE103" s="100"/>
+    </row>
+    <row r="104" spans="1:31">
+      <c r="A104" s="17"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="141"/>
+      <c r="G104" s="164" t="s">
+        <v>174</v>
+      </c>
+      <c r="H104" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="I104" s="141" t="s">
+        <v>147</v>
+      </c>
+      <c r="J104" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="K104" s="142"/>
+      <c r="L104" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="M104" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="16"/>
+      <c r="W104" s="76">
+        <v>16</v>
+      </c>
+      <c r="X104" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y104" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z104" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA104" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB104" s="99"/>
+      <c r="AC104" s="99"/>
+      <c r="AD104" s="99"/>
+      <c r="AE104" s="100"/>
+    </row>
+    <row r="105" spans="1:31">
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="F105" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G105" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="H105" s="145"/>
+      <c r="I105" s="145"/>
+      <c r="J105" s="145"/>
+      <c r="K105" s="145"/>
+      <c r="L105" s="145"/>
+      <c r="M105" t="s">
+        <v>158</v>
+      </c>
+      <c r="P105" s="30"/>
+      <c r="Q105" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="T85" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="U85" s="25"/>
-      <c r="V85" s="26"/>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" s="30"/>
-      <c r="B86" s="18" t="s">
+      <c r="R105" s="16"/>
+      <c r="W105" s="76">
+        <v>17</v>
+      </c>
+      <c r="X105" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y105" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z105" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA105" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB105" s="99"/>
+      <c r="AC105" s="99"/>
+      <c r="AD105" s="99"/>
+      <c r="AE105" s="100"/>
+    </row>
+    <row r="106" spans="1:31">
+      <c r="F106" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" s="130"/>
+      <c r="H106" s="130"/>
+      <c r="I106" s="130"/>
+      <c r="J106" s="130"/>
+      <c r="K106" s="130"/>
+      <c r="L106" s="130"/>
+      <c r="M106" t="s">
+        <v>158</v>
+      </c>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="P86" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="13"/>
-    </row>
-    <row r="87" spans="1:22">
-      <c r="A87" s="30"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="16"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="21"/>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="A88" s="30"/>
-      <c r="B88" s="18" t="s">
+      <c r="R106" s="16"/>
+      <c r="W106" s="76">
+        <v>18</v>
+      </c>
+      <c r="X106" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y106" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z106" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA106" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB106" s="99"/>
+      <c r="AC106" s="99"/>
+      <c r="AD106" s="99"/>
+      <c r="AE106" s="100"/>
+    </row>
+    <row r="107" spans="1:31">
+      <c r="F107" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G107" s="130"/>
+      <c r="H107" s="130"/>
+      <c r="I107" s="130"/>
+      <c r="J107" s="130"/>
+      <c r="K107" s="130"/>
+      <c r="L107" s="130"/>
+      <c r="M107" t="s">
+        <v>158</v>
+      </c>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="16"/>
+      <c r="W107" s="76">
+        <v>19</v>
+      </c>
+      <c r="X107" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y107" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z107" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA107" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB107" s="99"/>
+      <c r="AC107" s="99"/>
+      <c r="AD107" s="99"/>
+      <c r="AE107" s="100"/>
+    </row>
+    <row r="108" spans="1:31">
+      <c r="F108" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G108" s="130"/>
+      <c r="H108" s="130"/>
+      <c r="I108" s="130"/>
+      <c r="J108" s="130"/>
+      <c r="K108" s="130"/>
+      <c r="L108" s="130"/>
+      <c r="M108" t="s">
+        <v>158</v>
+      </c>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="N88" s="76"/>
-      <c r="O88" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="P88" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q88" s="50" t="s">
+      <c r="R108" s="16"/>
+      <c r="W108" s="76">
+        <v>20</v>
+      </c>
+      <c r="X108" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y108" s="76"/>
+      <c r="Z108" s="83"/>
+      <c r="AA108" s="101"/>
+      <c r="AB108" s="102"/>
+      <c r="AC108" s="102"/>
+      <c r="AD108" s="102"/>
+      <c r="AE108" s="103"/>
+    </row>
+    <row r="109" spans="1:31">
+      <c r="F109" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G109" s="130"/>
+      <c r="H109" s="130"/>
+      <c r="I109" s="130"/>
+      <c r="J109" s="130"/>
+      <c r="K109" s="130"/>
+      <c r="L109" s="130"/>
+      <c r="M109" t="s">
+        <v>158</v>
+      </c>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R109" s="16"/>
+      <c r="W109" s="76">
+        <v>21</v>
+      </c>
+      <c r="X109" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y109" s="76"/>
+      <c r="Z109" s="83"/>
+      <c r="AA109" s="101"/>
+      <c r="AB109" s="102"/>
+      <c r="AC109" s="102"/>
+      <c r="AD109" s="102"/>
+      <c r="AE109" s="103"/>
+    </row>
+    <row r="110" spans="1:31">
+      <c r="F110" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G110" s="130"/>
+      <c r="H110" s="130"/>
+      <c r="I110" s="130"/>
+      <c r="J110" s="130"/>
+      <c r="K110" s="130"/>
+      <c r="L110" s="130"/>
+      <c r="M110" t="s">
+        <v>158</v>
+      </c>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="16"/>
+      <c r="W110" s="76">
+        <v>22</v>
+      </c>
+      <c r="X110" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y110" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z110" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA110" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB110" s="99"/>
+      <c r="AC110" s="99"/>
+      <c r="AD110" s="99"/>
+      <c r="AE110" s="100"/>
+    </row>
+    <row r="111" spans="1:31">
+      <c r="P111" s="30"/>
+      <c r="Q111" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R111" s="16"/>
+      <c r="W111" s="76">
+        <v>23</v>
+      </c>
+      <c r="X111" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y111" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z111" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA111" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB111" s="99"/>
+      <c r="AC111" s="99"/>
+      <c r="AD111" s="99"/>
+      <c r="AE111" s="100"/>
+    </row>
+    <row r="112" spans="1:31">
+      <c r="P112" s="34"/>
+      <c r="Q112" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="R112" s="21"/>
+      <c r="W112" s="76">
+        <v>24</v>
+      </c>
+      <c r="X112" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y112" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z112" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA112" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB112" s="99"/>
+      <c r="AC112" s="99"/>
+      <c r="AD112" s="99"/>
+      <c r="AE112" s="100"/>
+    </row>
+    <row r="113" spans="14:31">
+      <c r="W113" s="76">
+        <v>25</v>
+      </c>
+      <c r="X113" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y113" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z113" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA113" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB113" s="99"/>
+      <c r="AC113" s="99"/>
+      <c r="AD113" s="99"/>
+      <c r="AE113" s="100"/>
+    </row>
+    <row r="114" spans="14:31">
+      <c r="P114" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q114" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="R114" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="W114" s="76">
+        <v>26</v>
+      </c>
+      <c r="X114" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y114" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z114" s="83">
+        <v>8</v>
+      </c>
+      <c r="AA114" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB114" s="99"/>
+      <c r="AC114" s="99"/>
+      <c r="AD114" s="99"/>
+      <c r="AE114" s="100"/>
+    </row>
+    <row r="115" spans="14:31">
+      <c r="P115" s="30"/>
+      <c r="Q115" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R115" s="16"/>
+      <c r="W115" s="76">
+        <v>27</v>
+      </c>
+      <c r="X115" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y115" s="76"/>
+      <c r="Z115" s="83"/>
+      <c r="AA115" s="101"/>
+      <c r="AB115" s="102"/>
+      <c r="AC115" s="102"/>
+      <c r="AD115" s="102"/>
+      <c r="AE115" s="103"/>
+    </row>
+    <row r="116" spans="14:31">
+      <c r="P116" s="34"/>
+      <c r="Q116" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="R116" s="21"/>
+      <c r="W116" s="76">
+        <v>28</v>
+      </c>
+      <c r="X116" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y116" s="76"/>
+      <c r="Z116" s="83"/>
+      <c r="AA116" s="101"/>
+      <c r="AB116" s="102"/>
+      <c r="AC116" s="102"/>
+      <c r="AD116" s="102"/>
+      <c r="AE116" s="103"/>
+    </row>
+    <row r="117" spans="14:31">
+      <c r="P117" s="27"/>
+      <c r="Q117" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="R117" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="W117" s="76">
         <v>29</v>
       </c>
-      <c r="R88" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="S88" s="116"/>
-      <c r="T88" s="116"/>
-      <c r="U88" s="116"/>
-      <c r="V88" s="117"/>
-    </row>
-    <row r="89" spans="1:22">
-      <c r="A89" s="30"/>
-      <c r="B89" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="16"/>
-      <c r="N89" s="76">
-        <v>1</v>
-      </c>
-      <c r="O89" s="82" t="s">
+      <c r="X117" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="P89" s="76" t="s">
+      <c r="Y117" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="Q89" s="83">
+      <c r="Z117" s="83">
         <v>8</v>
       </c>
-      <c r="R89" s="100" t="s">
+      <c r="AA117" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="S89" s="101"/>
-      <c r="T89" s="101"/>
-      <c r="U89" s="101"/>
-      <c r="V89" s="102"/>
-    </row>
-    <row r="90" spans="1:22">
-      <c r="A90" s="30"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="16"/>
-      <c r="N90" s="76">
-        <v>2</v>
-      </c>
-      <c r="O90" s="82" t="s">
+      <c r="AB117" s="99"/>
+      <c r="AC117" s="99"/>
+      <c r="AD117" s="99"/>
+      <c r="AE117" s="100"/>
+    </row>
+    <row r="118" spans="14:31">
+      <c r="P118" s="61"/>
+      <c r="Q118" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="R118" s="16"/>
+      <c r="W118" s="76">
+        <v>30</v>
+      </c>
+      <c r="X118" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="P90" s="76" t="s">
+      <c r="Y118" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Q90" s="83">
+      <c r="Z118" s="83">
         <v>8</v>
       </c>
-      <c r="R90" s="100" t="s">
+      <c r="AA118" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="S90" s="101"/>
-      <c r="T90" s="101"/>
-      <c r="U90" s="101"/>
-      <c r="V90" s="102"/>
-    </row>
-    <row r="91" spans="1:22">
-      <c r="A91" s="30"/>
-      <c r="B91" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="16"/>
-      <c r="N91" s="76">
-        <v>3</v>
-      </c>
-      <c r="O91" s="82" t="s">
+      <c r="AB118" s="99"/>
+      <c r="AC118" s="99"/>
+      <c r="AD118" s="99"/>
+      <c r="AE118" s="100"/>
+    </row>
+    <row r="119" spans="14:31">
+      <c r="P119" s="34"/>
+      <c r="Q119" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="R119" s="21"/>
+      <c r="W119" s="76">
+        <v>31</v>
+      </c>
+      <c r="X119" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="P91" s="76" t="s">
+      <c r="Y119" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Q91" s="83">
+      <c r="Z119" s="83">
         <v>8</v>
       </c>
-      <c r="R91" s="100" t="s">
+      <c r="AA119" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="S91" s="101"/>
-      <c r="T91" s="101"/>
-      <c r="U91" s="101"/>
-      <c r="V91" s="102"/>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="A92" s="34"/>
-      <c r="B92" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="21"/>
-      <c r="N92" s="76">
-        <v>4</v>
-      </c>
-      <c r="O92" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="P92" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q92" s="83">
-        <v>8</v>
-      </c>
-      <c r="R92" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S92" s="101"/>
-      <c r="T92" s="101"/>
-      <c r="U92" s="101"/>
-      <c r="V92" s="102"/>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="N93" s="76">
-        <v>5</v>
-      </c>
-      <c r="O93" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="P93" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q93" s="83">
-        <v>8</v>
-      </c>
-      <c r="R93" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S93" s="101"/>
-      <c r="T93" s="101"/>
-      <c r="U93" s="101"/>
-      <c r="V93" s="102"/>
-    </row>
-    <row r="94" spans="1:22">
-      <c r="A94" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="N94" s="76">
-        <v>6</v>
-      </c>
-      <c r="O94" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="P94" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q94" s="83">
-        <v>17</v>
-      </c>
-      <c r="R94" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="S94" s="104"/>
-      <c r="T94" s="104"/>
-      <c r="U94" s="104"/>
-      <c r="V94" s="105"/>
-    </row>
-    <row r="95" spans="1:22">
-      <c r="A95" s="30"/>
-      <c r="B95" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="16"/>
-      <c r="N95" s="76">
-        <v>7</v>
-      </c>
-      <c r="O95" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="P95" s="76"/>
-      <c r="Q95" s="83"/>
-      <c r="R95" s="103"/>
-      <c r="S95" s="104"/>
-      <c r="T95" s="104"/>
-      <c r="U95" s="104"/>
-      <c r="V95" s="105"/>
-    </row>
-    <row r="96" spans="1:22">
-      <c r="A96" s="34"/>
-      <c r="B96" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="21"/>
-      <c r="N96" s="76">
-        <v>8</v>
-      </c>
-      <c r="O96" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="P96" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q96" s="83">
-        <v>8</v>
-      </c>
-      <c r="R96" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S96" s="101"/>
-      <c r="T96" s="101"/>
-      <c r="U96" s="101"/>
-      <c r="V96" s="102"/>
-    </row>
-    <row r="97" spans="1:22">
-      <c r="A97" s="27"/>
-      <c r="B97" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="N97" s="76">
-        <v>9</v>
-      </c>
-      <c r="O97" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="P97" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q97" s="83">
-        <v>8</v>
-      </c>
-      <c r="R97" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S97" s="101"/>
-      <c r="T97" s="101"/>
-      <c r="U97" s="101"/>
-      <c r="V97" s="102"/>
-    </row>
-    <row r="98" spans="1:22">
-      <c r="A98" s="61"/>
-      <c r="B98" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="N98" s="76">
-        <v>10</v>
-      </c>
-      <c r="O98" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="P98" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q98" s="83">
-        <v>8</v>
-      </c>
-      <c r="R98" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S98" s="101"/>
-      <c r="T98" s="101"/>
-      <c r="U98" s="101"/>
-      <c r="V98" s="102"/>
-    </row>
-    <row r="99" spans="1:22">
-      <c r="A99" s="34"/>
-      <c r="B99" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="21"/>
-      <c r="N99" s="76">
-        <v>11</v>
-      </c>
-      <c r="O99" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="P99" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q99" s="83">
-        <v>8</v>
-      </c>
-      <c r="R99" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S99" s="101"/>
-      <c r="T99" s="101"/>
-      <c r="U99" s="101"/>
-      <c r="V99" s="102"/>
-    </row>
-    <row r="100" spans="1:22">
-      <c r="N100" s="76">
-        <v>12</v>
-      </c>
-      <c r="O100" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="P100" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q100" s="83">
-        <v>8</v>
-      </c>
-      <c r="R100" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S100" s="101"/>
-      <c r="T100" s="101"/>
-      <c r="U100" s="101"/>
-      <c r="V100" s="102"/>
-    </row>
-    <row r="101" spans="1:22">
-      <c r="A101" t="s">
-        <v>137</v>
-      </c>
-      <c r="N101" s="76">
-        <v>13</v>
-      </c>
-      <c r="O101" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="P101" s="76"/>
-      <c r="Q101" s="83"/>
-      <c r="R101" s="103"/>
-      <c r="S101" s="104"/>
-      <c r="T101" s="104"/>
-      <c r="U101" s="104"/>
-      <c r="V101" s="105"/>
-    </row>
-    <row r="102" spans="1:22">
-      <c r="N102" s="76">
-        <v>14</v>
-      </c>
-      <c r="O102" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="83"/>
-      <c r="R102" s="103"/>
-      <c r="S102" s="104"/>
-      <c r="T102" s="104"/>
-      <c r="U102" s="104"/>
-      <c r="V102" s="105"/>
-    </row>
-    <row r="103" spans="1:22">
-      <c r="N103" s="76">
-        <v>15</v>
-      </c>
-      <c r="O103" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="P103" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q103" s="83">
-        <v>8</v>
-      </c>
-      <c r="R103" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S103" s="101"/>
-      <c r="T103" s="101"/>
-      <c r="U103" s="101"/>
-      <c r="V103" s="102"/>
-    </row>
-    <row r="104" spans="1:22">
-      <c r="N104" s="76">
-        <v>16</v>
-      </c>
-      <c r="O104" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="P104" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q104" s="83">
-        <v>8</v>
-      </c>
-      <c r="R104" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S104" s="101"/>
-      <c r="T104" s="101"/>
-      <c r="U104" s="101"/>
-      <c r="V104" s="102"/>
-    </row>
-    <row r="105" spans="1:22">
-      <c r="N105" s="76">
-        <v>17</v>
-      </c>
-      <c r="O105" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="P105" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q105" s="83">
-        <v>8</v>
-      </c>
-      <c r="R105" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S105" s="101"/>
-      <c r="T105" s="101"/>
-      <c r="U105" s="101"/>
-      <c r="V105" s="102"/>
-    </row>
-    <row r="106" spans="1:22">
-      <c r="N106" s="76">
-        <v>18</v>
-      </c>
-      <c r="O106" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="P106" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q106" s="83">
-        <v>8</v>
-      </c>
-      <c r="R106" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S106" s="101"/>
-      <c r="T106" s="101"/>
-      <c r="U106" s="101"/>
-      <c r="V106" s="102"/>
-    </row>
-    <row r="107" spans="1:22">
-      <c r="N107" s="76">
-        <v>19</v>
-      </c>
-      <c r="O107" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="P107" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q107" s="83">
-        <v>8</v>
-      </c>
-      <c r="R107" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S107" s="101"/>
-      <c r="T107" s="101"/>
-      <c r="U107" s="101"/>
-      <c r="V107" s="102"/>
-    </row>
-    <row r="108" spans="1:22">
-      <c r="N108" s="76">
-        <v>20</v>
-      </c>
-      <c r="O108" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="P108" s="76"/>
-      <c r="Q108" s="83"/>
-      <c r="R108" s="103"/>
-      <c r="S108" s="104"/>
-      <c r="T108" s="104"/>
-      <c r="U108" s="104"/>
-      <c r="V108" s="105"/>
-    </row>
-    <row r="109" spans="1:22">
-      <c r="N109" s="76">
-        <v>21</v>
-      </c>
-      <c r="O109" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="P109" s="76"/>
-      <c r="Q109" s="83"/>
-      <c r="R109" s="103"/>
-      <c r="S109" s="104"/>
-      <c r="T109" s="104"/>
-      <c r="U109" s="104"/>
-      <c r="V109" s="105"/>
-    </row>
-    <row r="110" spans="1:22">
-      <c r="N110" s="76">
-        <v>22</v>
-      </c>
-      <c r="O110" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="P110" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q110" s="83">
-        <v>8</v>
-      </c>
-      <c r="R110" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S110" s="101"/>
-      <c r="T110" s="101"/>
-      <c r="U110" s="101"/>
-      <c r="V110" s="102"/>
-    </row>
-    <row r="111" spans="1:22">
-      <c r="N111" s="76">
-        <v>23</v>
-      </c>
-      <c r="O111" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="P111" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q111" s="83">
-        <v>8</v>
-      </c>
-      <c r="R111" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S111" s="101"/>
-      <c r="T111" s="101"/>
-      <c r="U111" s="101"/>
-      <c r="V111" s="102"/>
-    </row>
-    <row r="112" spans="1:22">
-      <c r="N112" s="76">
-        <v>24</v>
-      </c>
-      <c r="O112" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="P112" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q112" s="83">
-        <v>8</v>
-      </c>
-      <c r="R112" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S112" s="101"/>
-      <c r="T112" s="101"/>
-      <c r="U112" s="101"/>
-      <c r="V112" s="102"/>
-    </row>
-    <row r="113" spans="14:22">
-      <c r="N113" s="76">
-        <v>25</v>
-      </c>
-      <c r="O113" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="P113" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q113" s="83">
-        <v>8</v>
-      </c>
-      <c r="R113" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S113" s="101"/>
-      <c r="T113" s="101"/>
-      <c r="U113" s="101"/>
-      <c r="V113" s="102"/>
-    </row>
-    <row r="114" spans="14:22">
-      <c r="N114" s="76">
-        <v>26</v>
-      </c>
-      <c r="O114" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="P114" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q114" s="83">
-        <v>8</v>
-      </c>
-      <c r="R114" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S114" s="101"/>
-      <c r="T114" s="101"/>
-      <c r="U114" s="101"/>
-      <c r="V114" s="102"/>
-    </row>
-    <row r="115" spans="14:22">
-      <c r="N115" s="76">
-        <v>27</v>
-      </c>
-      <c r="O115" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="P115" s="76"/>
-      <c r="Q115" s="83"/>
-      <c r="R115" s="103"/>
-      <c r="S115" s="104"/>
-      <c r="T115" s="104"/>
-      <c r="U115" s="104"/>
-      <c r="V115" s="105"/>
-    </row>
-    <row r="116" spans="14:22">
-      <c r="N116" s="76">
-        <v>28</v>
-      </c>
-      <c r="O116" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="P116" s="76"/>
-      <c r="Q116" s="83"/>
-      <c r="R116" s="103"/>
-      <c r="S116" s="104"/>
-      <c r="T116" s="104"/>
-      <c r="U116" s="104"/>
-      <c r="V116" s="105"/>
-    </row>
-    <row r="117" spans="14:22">
-      <c r="N117" s="76">
-        <v>29</v>
-      </c>
-      <c r="O117" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="P117" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q117" s="83">
-        <v>8</v>
-      </c>
-      <c r="R117" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S117" s="101"/>
-      <c r="T117" s="101"/>
-      <c r="U117" s="101"/>
-      <c r="V117" s="102"/>
-    </row>
-    <row r="118" spans="14:22">
-      <c r="N118" s="76">
-        <v>30</v>
-      </c>
-      <c r="O118" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="P118" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q118" s="83">
-        <v>8</v>
-      </c>
-      <c r="R118" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S118" s="101"/>
-      <c r="T118" s="101"/>
-      <c r="U118" s="101"/>
-      <c r="V118" s="102"/>
-    </row>
-    <row r="119" spans="14:22">
-      <c r="N119" s="76">
-        <v>31</v>
-      </c>
-      <c r="O119" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="P119" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q119" s="83">
-        <v>8</v>
-      </c>
-      <c r="R119" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="S119" s="101"/>
-      <c r="T119" s="101"/>
-      <c r="U119" s="101"/>
-      <c r="V119" s="102"/>
-    </row>
-    <row r="120" spans="14:22">
-      <c r="N120" s="14"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="15"/>
-      <c r="R120" s="15"/>
-      <c r="S120" s="15"/>
-      <c r="T120" s="15"/>
-      <c r="U120" s="15"/>
-      <c r="V120" s="16"/>
-    </row>
-    <row r="121" spans="14:22">
-      <c r="N121" s="78" t="s">
+      <c r="AB119" s="99"/>
+      <c r="AC119" s="99"/>
+      <c r="AD119" s="99"/>
+      <c r="AE119" s="100"/>
+    </row>
+    <row r="120" spans="14:31">
+      <c r="W120" s="14"/>
+      <c r="X120" s="15"/>
+      <c r="Y120" s="15"/>
+      <c r="Z120" s="15"/>
+      <c r="AA120" s="15"/>
+      <c r="AB120" s="15"/>
+      <c r="AC120" s="15"/>
+      <c r="AD120" s="15"/>
+      <c r="AE120" s="16"/>
+    </row>
+    <row r="121" spans="14:31">
+      <c r="P121" t="s">
+        <v>127</v>
+      </c>
+      <c r="W121" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="O121" s="79"/>
-      <c r="P121" s="80"/>
-      <c r="Q121" s="73">
+      <c r="X121" s="79"/>
+      <c r="Y121" s="80"/>
+      <c r="Z121" s="73">
         <v>184</v>
       </c>
-      <c r="R121" s="81"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="80"/>
-    </row>
-    <row r="122" spans="14:22">
+      <c r="AA121" s="81"/>
+      <c r="AB121" s="79"/>
+      <c r="AC121" s="79"/>
+      <c r="AD121" s="79"/>
+      <c r="AE121" s="80"/>
+    </row>
+    <row r="122" spans="14:31">
       <c r="N122" s="14"/>
       <c r="O122" s="15"/>
       <c r="P122" s="15"/>
@@ -6416,7 +8746,7 @@
       <c r="U122" s="15"/>
       <c r="V122" s="16"/>
     </row>
-    <row r="123" spans="14:22">
+    <row r="123" spans="14:31">
       <c r="N123" s="14"/>
       <c r="O123" s="15"/>
       <c r="P123" s="15"/>
@@ -6427,7 +8757,7 @@
       <c r="U123" s="15"/>
       <c r="V123" s="16"/>
     </row>
-    <row r="124" spans="14:22">
+    <row r="124" spans="14:31">
       <c r="N124" s="19"/>
       <c r="O124" s="20"/>
       <c r="P124" s="20"/>
@@ -6439,51 +8769,73 @@
       <c r="V124" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="66">
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R53:T54"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="G105:L110"/>
+    <mergeCell ref="B96:D99"/>
+    <mergeCell ref="B100:D102"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B74:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="B83:D84"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="D86:G86"/>
     <mergeCell ref="M18:P24"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="M6:P10"/>
     <mergeCell ref="AJ37:AM41"/>
     <mergeCell ref="J4:K6"/>
-    <mergeCell ref="AB45:AD48"/>
-    <mergeCell ref="AB49:AD51"/>
-    <mergeCell ref="R88:V88"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="R90:V90"/>
-    <mergeCell ref="R91:V91"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="R93:V93"/>
-    <mergeCell ref="R94:V94"/>
-    <mergeCell ref="R95:V95"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="R106:V106"/>
-    <mergeCell ref="R107:V107"/>
-    <mergeCell ref="R96:V96"/>
-    <mergeCell ref="R97:V97"/>
-    <mergeCell ref="R98:V98"/>
-    <mergeCell ref="R99:V99"/>
-    <mergeCell ref="R100:V100"/>
-    <mergeCell ref="R117:V117"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="R119:V119"/>
-    <mergeCell ref="R101:V101"/>
-    <mergeCell ref="R102:V102"/>
-    <mergeCell ref="R108:V108"/>
-    <mergeCell ref="R109:V109"/>
-    <mergeCell ref="R115:V115"/>
-    <mergeCell ref="R116:V116"/>
-    <mergeCell ref="R110:V110"/>
-    <mergeCell ref="R111:V111"/>
-    <mergeCell ref="R112:V112"/>
-    <mergeCell ref="R113:V113"/>
-    <mergeCell ref="R114:V114"/>
-    <mergeCell ref="R103:V103"/>
-    <mergeCell ref="R104:V104"/>
     <mergeCell ref="H15:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
+    <mergeCell ref="AB45:AD48"/>
+    <mergeCell ref="AB49:AD51"/>
+    <mergeCell ref="AA88:AE88"/>
+    <mergeCell ref="AA89:AE89"/>
+    <mergeCell ref="AA90:AE90"/>
+    <mergeCell ref="N79:R85"/>
+    <mergeCell ref="W64:Z65"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="AA91:AE91"/>
+    <mergeCell ref="AA92:AE92"/>
+    <mergeCell ref="AA93:AE93"/>
+    <mergeCell ref="AA94:AE94"/>
+    <mergeCell ref="AA95:AE95"/>
+    <mergeCell ref="AA105:AE105"/>
+    <mergeCell ref="AA106:AE106"/>
+    <mergeCell ref="AA107:AE107"/>
+    <mergeCell ref="AA96:AE96"/>
+    <mergeCell ref="AA97:AE97"/>
+    <mergeCell ref="AA98:AE98"/>
+    <mergeCell ref="AA99:AE99"/>
+    <mergeCell ref="AA100:AE100"/>
+    <mergeCell ref="AA117:AE117"/>
+    <mergeCell ref="AA118:AE118"/>
+    <mergeCell ref="AA119:AE119"/>
+    <mergeCell ref="AA101:AE101"/>
+    <mergeCell ref="AA102:AE102"/>
+    <mergeCell ref="AA108:AE108"/>
+    <mergeCell ref="AA109:AE109"/>
+    <mergeCell ref="AA115:AE115"/>
+    <mergeCell ref="AA116:AE116"/>
+    <mergeCell ref="AA110:AE110"/>
+    <mergeCell ref="AA111:AE111"/>
+    <mergeCell ref="AA112:AE112"/>
+    <mergeCell ref="AA113:AE113"/>
+    <mergeCell ref="AA114:AE114"/>
+    <mergeCell ref="AA103:AE103"/>
+    <mergeCell ref="AA104:AE104"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
